--- a/Data/EC/NIT-9003781909.xlsx
+++ b/Data/EC/NIT-9003781909.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78E7CC73-D610-460A-9AD9-54B1DBD77DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E20F02AF-D1CB-4C1E-8C9F-1DA2A223A48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{061DD525-71A4-4B24-AC3A-5C9F3FE2A2DC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2541771D-C058-453D-A253-E6F3621801F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -62,6 +62,18 @@
     <t>EQUIPOS LOGISTICA Y SERVICIOS ESPECIALES S.A.S</t>
   </si>
   <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>73150584</t>
+  </si>
+  <si>
+    <t>EDGARDO FERNANDEZ MORALES</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
     <t>CE</t>
   </si>
   <si>
@@ -71,232 +83,220 @@
     <t>FERMIN SEGUNDO HERNANDEZ OCANDO</t>
   </si>
   <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
     <t>1607</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>73150584</t>
-  </si>
-  <si>
-    <t>EDGARDO FERNANDEZ MORALES</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -710,7 +710,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F01EF31-2C60-B6B8-B2B3-3E2BBFE42ADF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B22578DB-FB66-7248-D35A-C457DE127CAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1061,7 +1061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E287B2-BEC4-4466-8CE6-DAA1CD0A470A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6BD0832-8228-400C-A417-3EE4C20ACEF0}">
   <dimension ref="B2:J95"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1239,10 +1239,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>220000</v>
+        <v>57836</v>
       </c>
       <c r="G16" s="18">
-        <v>5500000</v>
+        <v>2040690</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1262,10 +1262,10 @@
         <v>15</v>
       </c>
       <c r="F17" s="18">
-        <v>57836</v>
+        <v>183333</v>
       </c>
       <c r="G17" s="18">
-        <v>2040690</v>
+        <v>5500000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1273,16 +1273,16 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F18" s="18">
         <v>220000</v>
@@ -1296,16 +1296,16 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F19" s="18">
         <v>220000</v>
@@ -1319,16 +1319,16 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
         <v>220000</v>
@@ -1342,16 +1342,16 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F21" s="18">
         <v>220000</v>
@@ -1365,16 +1365,16 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
         <v>220000</v>
@@ -1388,16 +1388,16 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F23" s="18">
         <v>220000</v>
@@ -1411,16 +1411,16 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F24" s="18">
         <v>220000</v>
@@ -1434,16 +1434,16 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F25" s="18">
         <v>220000</v>
@@ -1457,16 +1457,16 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F26" s="18">
         <v>220000</v>
@@ -1480,16 +1480,16 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F27" s="18">
         <v>220000</v>
@@ -1503,16 +1503,16 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F28" s="18">
         <v>220000</v>
@@ -1526,16 +1526,16 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F29" s="18">
         <v>220000</v>
@@ -1549,16 +1549,16 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F30" s="18">
         <v>220000</v>
@@ -1572,16 +1572,16 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F31" s="18">
         <v>220000</v>
@@ -1595,16 +1595,16 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F32" s="18">
         <v>220000</v>
@@ -1618,16 +1618,16 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F33" s="18">
         <v>220000</v>
@@ -1641,16 +1641,16 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F34" s="18">
         <v>220000</v>
@@ -1664,16 +1664,16 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F35" s="18">
         <v>220000</v>
@@ -1687,16 +1687,16 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F36" s="18">
         <v>220000</v>
@@ -1710,16 +1710,16 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F37" s="18">
         <v>220000</v>
@@ -1733,16 +1733,16 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F38" s="18">
         <v>220000</v>
@@ -1756,16 +1756,16 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F39" s="18">
         <v>220000</v>
@@ -1779,16 +1779,16 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F40" s="18">
         <v>220000</v>
@@ -1802,16 +1802,16 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F41" s="18">
         <v>220000</v>
@@ -1825,16 +1825,16 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F42" s="18">
         <v>220000</v>
@@ -1848,16 +1848,16 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F43" s="18">
         <v>220000</v>
@@ -1871,16 +1871,16 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F44" s="18">
         <v>220000</v>
@@ -1894,16 +1894,16 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F45" s="18">
         <v>220000</v>
@@ -1917,16 +1917,16 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" s="18">
         <v>220000</v>
@@ -1940,16 +1940,16 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" s="18">
         <v>220000</v>
@@ -1963,16 +1963,16 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F48" s="18">
         <v>220000</v>
@@ -1986,16 +1986,16 @@
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F49" s="18">
         <v>220000</v>
@@ -2009,16 +2009,16 @@
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F50" s="18">
         <v>220000</v>
@@ -2032,16 +2032,16 @@
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F51" s="18">
         <v>220000</v>
@@ -2055,16 +2055,16 @@
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F52" s="18">
         <v>220000</v>
@@ -2078,16 +2078,16 @@
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F53" s="18">
         <v>220000</v>
@@ -2101,16 +2101,16 @@
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F54" s="18">
         <v>220000</v>
@@ -2124,16 +2124,16 @@
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F55" s="18">
         <v>220000</v>
@@ -2147,16 +2147,16 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F56" s="18">
         <v>220000</v>
@@ -2170,16 +2170,16 @@
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F57" s="18">
         <v>220000</v>
@@ -2193,16 +2193,16 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F58" s="18">
         <v>220000</v>
@@ -2216,16 +2216,16 @@
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F59" s="18">
         <v>220000</v>
@@ -2239,16 +2239,16 @@
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F60" s="18">
         <v>220000</v>
@@ -2262,16 +2262,16 @@
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F61" s="18">
         <v>220000</v>
@@ -2285,16 +2285,16 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F62" s="18">
         <v>220000</v>
@@ -2308,16 +2308,16 @@
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F63" s="18">
         <v>220000</v>
@@ -2331,16 +2331,16 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F64" s="18">
         <v>220000</v>
@@ -2354,16 +2354,16 @@
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F65" s="18">
         <v>220000</v>
@@ -2377,16 +2377,16 @@
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F66" s="18">
         <v>220000</v>
@@ -2400,16 +2400,16 @@
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F67" s="18">
         <v>220000</v>
@@ -2423,16 +2423,16 @@
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F68" s="18">
         <v>220000</v>
@@ -2446,16 +2446,16 @@
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F69" s="18">
         <v>220000</v>
@@ -2469,16 +2469,16 @@
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F70" s="18">
         <v>220000</v>
@@ -2492,16 +2492,16 @@
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F71" s="18">
         <v>220000</v>
@@ -2515,16 +2515,16 @@
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F72" s="18">
         <v>220000</v>
@@ -2538,16 +2538,16 @@
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F73" s="18">
         <v>220000</v>
@@ -2561,16 +2561,16 @@
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F74" s="18">
         <v>220000</v>
@@ -2584,16 +2584,16 @@
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F75" s="18">
         <v>220000</v>
@@ -2607,16 +2607,16 @@
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F76" s="18">
         <v>220000</v>
@@ -2630,16 +2630,16 @@
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F77" s="18">
         <v>220000</v>
@@ -2653,16 +2653,16 @@
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F78" s="18">
         <v>220000</v>
@@ -2676,16 +2676,16 @@
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F79" s="18">
         <v>220000</v>
@@ -2699,16 +2699,16 @@
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F80" s="18">
         <v>220000</v>
@@ -2722,16 +2722,16 @@
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F81" s="18">
         <v>220000</v>
@@ -2745,16 +2745,16 @@
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F82" s="18">
         <v>220000</v>
@@ -2768,16 +2768,16 @@
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F83" s="18">
         <v>220000</v>
@@ -2791,16 +2791,16 @@
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F84" s="18">
         <v>220000</v>
@@ -2814,16 +2814,16 @@
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F85" s="18">
         <v>220000</v>
@@ -2837,16 +2837,16 @@
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F86" s="18">
         <v>220000</v>
@@ -2860,16 +2860,16 @@
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F87" s="18">
         <v>220000</v>
@@ -2883,16 +2883,16 @@
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="F88" s="18">
         <v>220000</v>
@@ -2906,19 +2906,19 @@
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="21" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E89" s="22" t="s">
         <v>86</v>
       </c>
       <c r="F89" s="24">
-        <v>183333</v>
+        <v>220000</v>
       </c>
       <c r="G89" s="24">
         <v>5500000</v>

--- a/Data/EC/NIT-9003781909.xlsx
+++ b/Data/EC/NIT-9003781909.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E20F02AF-D1CB-4C1E-8C9F-1DA2A223A48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89134E3D-FDEF-4AE3-8FFB-6601A54927F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2541771D-C058-453D-A253-E6F3621801F0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{80487982-8D07-4966-8694-8606204F4750}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -62,6 +62,18 @@
     <t>EQUIPOS LOGISTICA Y SERVICIOS ESPECIALES S.A.S</t>
   </si>
   <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>394833</t>
+  </si>
+  <si>
+    <t>FERMIN SEGUNDO HERNANDEZ OCANDO</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
     <t>CC</t>
   </si>
   <si>
@@ -74,229 +86,217 @@
     <t>1608</t>
   </si>
   <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>394833</t>
-  </si>
-  <si>
-    <t>FERMIN SEGUNDO HERNANDEZ OCANDO</t>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
   </si>
   <si>
     <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1607</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -395,7 +395,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -408,9 +410,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -610,23 +610,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -654,10 +654,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -710,7 +710,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B22578DB-FB66-7248-D35A-C457DE127CAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{129E034A-EDC0-83F4-549F-EA34D508296D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1061,7 +1061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6BD0832-8228-400C-A417-3EE4C20ACEF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9495EE6-387B-46D5-8DCA-E3A7FE96F02E}">
   <dimension ref="B2:J95"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1239,10 +1239,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>57836</v>
+        <v>220000</v>
       </c>
       <c r="G16" s="18">
-        <v>2040690</v>
+        <v>5500000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1262,10 +1262,10 @@
         <v>15</v>
       </c>
       <c r="F17" s="18">
-        <v>183333</v>
+        <v>57836</v>
       </c>
       <c r="G17" s="18">
-        <v>5500000</v>
+        <v>2040690</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1273,16 +1273,16 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>220000</v>
@@ -1296,16 +1296,16 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>220000</v>
@@ -1319,16 +1319,16 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>220000</v>
@@ -1342,16 +1342,16 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>220000</v>
@@ -1365,16 +1365,16 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>220000</v>
@@ -1388,16 +1388,16 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>220000</v>
@@ -1411,16 +1411,16 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>220000</v>
@@ -1434,16 +1434,16 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>220000</v>
@@ -1457,16 +1457,16 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>220000</v>
@@ -1480,16 +1480,16 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
         <v>220000</v>
@@ -1503,16 +1503,16 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>220000</v>
@@ -1526,16 +1526,16 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
         <v>220000</v>
@@ -1549,16 +1549,16 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
         <v>220000</v>
@@ -1572,16 +1572,16 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
         <v>220000</v>
@@ -1595,16 +1595,16 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
         <v>220000</v>
@@ -1618,16 +1618,16 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
         <v>220000</v>
@@ -1641,16 +1641,16 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
         <v>220000</v>
@@ -1664,16 +1664,16 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
         <v>220000</v>
@@ -1687,16 +1687,16 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
         <v>220000</v>
@@ -1710,16 +1710,16 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
         <v>220000</v>
@@ -1733,16 +1733,16 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F38" s="18">
         <v>220000</v>
@@ -1756,16 +1756,16 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F39" s="18">
         <v>220000</v>
@@ -1779,16 +1779,16 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F40" s="18">
         <v>220000</v>
@@ -1802,16 +1802,16 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F41" s="18">
         <v>220000</v>
@@ -1825,16 +1825,16 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F42" s="18">
         <v>220000</v>
@@ -1848,16 +1848,16 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F43" s="18">
         <v>220000</v>
@@ -1871,16 +1871,16 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F44" s="18">
         <v>220000</v>
@@ -1894,16 +1894,16 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F45" s="18">
         <v>220000</v>
@@ -1917,16 +1917,16 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" s="18">
         <v>220000</v>
@@ -1940,16 +1940,16 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" s="18">
         <v>220000</v>
@@ -1963,16 +1963,16 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F48" s="18">
         <v>220000</v>
@@ -1986,16 +1986,16 @@
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F49" s="18">
         <v>220000</v>
@@ -2009,16 +2009,16 @@
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F50" s="18">
         <v>220000</v>
@@ -2032,16 +2032,16 @@
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F51" s="18">
         <v>220000</v>
@@ -2055,16 +2055,16 @@
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F52" s="18">
         <v>220000</v>
@@ -2078,16 +2078,16 @@
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F53" s="18">
         <v>220000</v>
@@ -2101,16 +2101,16 @@
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F54" s="18">
         <v>220000</v>
@@ -2124,16 +2124,16 @@
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F55" s="18">
         <v>220000</v>
@@ -2147,16 +2147,16 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F56" s="18">
         <v>220000</v>
@@ -2170,16 +2170,16 @@
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F57" s="18">
         <v>220000</v>
@@ -2193,16 +2193,16 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F58" s="18">
         <v>220000</v>
@@ -2216,16 +2216,16 @@
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F59" s="18">
         <v>220000</v>
@@ -2239,16 +2239,16 @@
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F60" s="18">
         <v>220000</v>
@@ -2262,16 +2262,16 @@
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F61" s="18">
         <v>220000</v>
@@ -2285,16 +2285,16 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F62" s="18">
         <v>220000</v>
@@ -2308,16 +2308,16 @@
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F63" s="18">
         <v>220000</v>
@@ -2331,16 +2331,16 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F64" s="18">
         <v>220000</v>
@@ -2354,16 +2354,16 @@
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F65" s="18">
         <v>220000</v>
@@ -2377,16 +2377,16 @@
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F66" s="18">
         <v>220000</v>
@@ -2400,16 +2400,16 @@
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F67" s="18">
         <v>220000</v>
@@ -2423,16 +2423,16 @@
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F68" s="18">
         <v>220000</v>
@@ -2446,16 +2446,16 @@
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F69" s="18">
         <v>220000</v>
@@ -2469,16 +2469,16 @@
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F70" s="18">
         <v>220000</v>
@@ -2492,16 +2492,16 @@
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F71" s="18">
         <v>220000</v>
@@ -2515,16 +2515,16 @@
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F72" s="18">
         <v>220000</v>
@@ -2538,16 +2538,16 @@
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F73" s="18">
         <v>220000</v>
@@ -2561,16 +2561,16 @@
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F74" s="18">
         <v>220000</v>
@@ -2584,16 +2584,16 @@
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F75" s="18">
         <v>220000</v>
@@ -2607,16 +2607,16 @@
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F76" s="18">
         <v>220000</v>
@@ -2630,16 +2630,16 @@
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F77" s="18">
         <v>220000</v>
@@ -2653,16 +2653,16 @@
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F78" s="18">
         <v>220000</v>
@@ -2676,16 +2676,16 @@
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F79" s="18">
         <v>220000</v>
@@ -2699,16 +2699,16 @@
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F80" s="18">
         <v>220000</v>
@@ -2722,16 +2722,16 @@
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F81" s="18">
         <v>220000</v>
@@ -2745,16 +2745,16 @@
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F82" s="18">
         <v>220000</v>
@@ -2768,16 +2768,16 @@
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F83" s="18">
         <v>220000</v>
@@ -2791,16 +2791,16 @@
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F84" s="18">
         <v>220000</v>
@@ -2814,16 +2814,16 @@
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F85" s="18">
         <v>220000</v>
@@ -2837,16 +2837,16 @@
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F86" s="18">
         <v>220000</v>
@@ -2860,16 +2860,16 @@
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F87" s="18">
         <v>220000</v>
@@ -2883,16 +2883,16 @@
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="F88" s="18">
         <v>220000</v>
@@ -2906,19 +2906,19 @@
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="21" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E89" s="22" t="s">
         <v>86</v>
       </c>
       <c r="F89" s="24">
-        <v>220000</v>
+        <v>183333</v>
       </c>
       <c r="G89" s="24">
         <v>5500000</v>
